--- a/country-code.xlsx
+++ b/country-code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IPOxIFRS16-Tools\Integrate-various-years-of-Datastream-data-from-same-country-into-one-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D45B7C2-2C31-4CD1-9BBA-7FC836B1A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA05FBF-AE23-4A50-BCDE-408C94E7E3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{80DE2E8B-180E-4661-A17A-CED0A80A30FE}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>US</t>
   </si>
   <si>
-    <t>Contry_code (based on ISO 3166: 2-digit)</t>
-  </si>
-  <si>
     <t>Country_code2</t>
   </si>
   <si>
@@ -399,6 +396,10 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -461,17 +462,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -818,7 +813,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -833,450 +828,450 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>119</v>
+      <c r="C40" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>120</v>
+      <c r="C41" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/country-code.xlsx
+++ b/country-code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IPOxIFRS16-Tools\Integrate-various-years-of-Datastream-data-from-same-country-into-one-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA05FBF-AE23-4A50-BCDE-408C94E7E3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41EC0E7-501F-4513-B2A8-28ABADEA8315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{80DE2E8B-180E-4661-A17A-CED0A80A30FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>Country_name</t>
   </si>
@@ -400,6 +400,24 @@
   <si>
     <t>Country_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
 </sst>
 </file>
@@ -462,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,6 +491,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6144343-B6DE-4DBD-AE9D-0362C000CA90}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1232,46 +1256,68 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
